--- a/레트로 게임 콘솔/구매리스트.xlsx
+++ b/레트로 게임 콘솔/구매리스트.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\동서울대학교\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CapstoneDesign\capstoneDesign\레트로 게임 콘솔\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,94 +35,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>층전기선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조이스틱+8핀변환케이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,300원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,500원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,800원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,800원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,300원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아크릴상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24,000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스티커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,900원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,400원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바구니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니선풍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,800원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,300원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://smartstore.naver.com/tsliving/products/2468134255?NaPm=ct%3Djmk832lk%7Cci%3Db1f845aace1c6d7c6c63341b62dacc2839cfb2a0%7Ctr%3Dslsl%7Csn%3D606101%7Cic%3D%7</t>
-  </si>
-  <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B556471227 </t>
   </si>
   <si>
     <t>https://smartstore.naver.com/zango/products/2452378549?NaPm=ct%3Djmk94h1s%7Cci%3D1cc7a9e993a52d58035fae91e5b9ffbfdb791b55%7Ctr%3Dslsl%7Csn%3D496049%7Cic%</t>
@@ -145,9 +71,6 @@
     </r>
   </si>
   <si>
-    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B525603891</t>
-  </si>
-  <si>
     <r>
       <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B384182200</t>
     </r>
@@ -165,35 +88,45 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B540466449</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>117,000원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B556471227 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8핀변환케이블, 흰색, 검은색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호 브라운 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5호 블루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,17 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -252,15 +187,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,14 +208,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -581,151 +517,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="192.75" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="192.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2*D2+E2</f>
+        <v>20500</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24900</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5500</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3*D3+E3</f>
+        <v>80200</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4*D4+E4</f>
+        <v>26500</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5*D5+E5</f>
+        <v>10500</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C6*D6+E6</f>
+        <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="3">
+        <f>SUM(F2:F7)</f>
+        <v>141700</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://smartstore.naver.com/tsliving/products/2468134255?NaPm=ct%3Djmk832lk%7Cci%3Db1f845aace1c6d7c6c63341b62dacc2839cfb2a0%7Ctr%3Dslsl%7Csn%3D606101%7Cic%3D%257"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://smartstore.naver.com/zango/products/2452378549?NaPm=ct%3Djmk94h1s%7Cci%3D1cc7a9e993a52d58035fae91e5b9ffbfdb791b55%7Ctr%3Dslsl%7Csn%3D496049%7Cic%25"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://itempage3.auction.co.kr/DetailView.aspx?itemno=B507851418"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://itempage3.auction.co.kr/DetailView.aspx?itemno=B384182200"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://itempage3.auction.co.kr/DetailView.aspx?itemno=B540466449"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://smartstore.naver.com/zango/products/2452378549?NaPm=ct%3Djmk94h1s%7Cci%3D1cc7a9e993a52d58035fae91e5b9ffbfdb791b55%7Ctr%3Dslsl%7Csn%3D496049%7Cic%25"/>
+    <hyperlink ref="G4" r:id="rId2" display="http://itempage3.auction.co.kr/DetailView.aspx?itemno=B507851418"/>
+    <hyperlink ref="G5" r:id="rId3" display="http://itempage3.auction.co.kr/DetailView.aspx?itemno=B384182200"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -735,7 +687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,7 +700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
